--- a/res/shm-copy.xlsx
+++ b/res/shm-copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\msc\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C42D07-55C6-4469-9849-53D06FEC01D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5072F45-4EFE-4D4A-9773-83278E7720EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5B3A39F9-A350-47F0-9C4B-CDFDDFCA56E6}"/>
+    <workbookView xWindow="4080" yWindow="1845" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{5B3A39F9-A350-47F0-9C4B-CDFDDFCA56E6}"/>
   </bookViews>
   <sheets>
     <sheet name="cam0" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="cam3" sheetId="4" r:id="rId4"/>
     <sheet name="cam4" sheetId="5" r:id="rId5"/>
     <sheet name="cam5" sheetId="6" r:id="rId6"/>
+    <sheet name="camAdap2faeShm" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -5494,6 +5495,893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sr-Cyrl-RS"/>
+              <a:t>Време копирања једног фрејма из зоне дељене меморије наменске платформе у зону дељене меморије софтверске магистрале у </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>us</a:t>
+            </a:r>
+            <a:endParaRPr lang="sr-Cyrl-RS"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>camAdap2faeShm!$A$1:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>20718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3546</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5963</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4738</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3534</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5572</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3743</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3559</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2862</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4061</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12441</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2373</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4151</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3290</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3258</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2852</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5784</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7361</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4643</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2343</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4287</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4237</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8608</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3229</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3258</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3134</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6128</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2366</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6459</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9810</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3351</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9274</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4394</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10450</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2371</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3907</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3428</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9890</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5172</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4702</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5870</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4240</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6553</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7894</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4324</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3766</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12959</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5525</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4196</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9246</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6192</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3553</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3194</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7115</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>13023</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3208</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14440</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4518</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4073</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4075</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3468</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3392</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10280</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4696</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4570</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3719</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8420</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10074</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2387</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3476</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5214</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8177</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4688</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3538</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4749</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4433</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6721</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9946</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3477</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2476</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8768</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4776</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5823</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9904</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3423</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3738</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4512</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3212</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>10377</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7313</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7811</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4071</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3066</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4375</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3621</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>11628</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2235</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4275</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4254</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9398</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4045</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2829</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3109</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11455</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5009</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7164</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5012</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9085</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4515</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6473</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CDA-4482-B683-49F3F2B2CF20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="505009936"/>
+        <c:axId val="505011248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="505009936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505011248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="505011248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505009936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5734,6 +6622,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8748,6 +9676,508 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8978,6 +10408,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA87C987-1A72-4A02-AB2E-72D3A3ACD426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC593842-BE37-4501-A2CC-A5F3BAF4B2BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14393,7 +15864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D402756-04AD-4613-BAA8-1656D4DEADA5}">
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -15542,4 +17013,1024 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB7E397-094D-46A0-A1BE-64F3170C843A}">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>20718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4268</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(A1:A200)</f>
+        <v>4796.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9890</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>12959</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>13023</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>14440</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>10280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>8768</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>9904</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>10377</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>7811</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>11628</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>9398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>11455</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>7164</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>6473</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>6805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/shm-copy.xlsx
+++ b/res/shm-copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\msc\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5072F45-4EFE-4D4A-9773-83278E7720EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA24549-4106-4DCD-BE7F-5E7794D49236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1845" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{5B3A39F9-A350-47F0-9C4B-CDFDDFCA56E6}"/>
   </bookViews>
@@ -5516,7 +5516,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5553,7 +5553,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5579,19 +5579,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -6236,7 +6230,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -9681,7 +9675,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9692,7 +9686,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9705,7 +9699,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -9722,7 +9716,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9738,7 +9732,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9782,35 +9776,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9822,29 +9826,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -9948,8 +9954,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -10039,20 +10051,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -10065,17 +10077,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10107,7 +10108,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10116,13 +10117,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10176,8 +10178,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -17020,7 +17028,7 @@
   <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
